--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.121319.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.121319.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2451,12 +2451,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3063,12 +3063,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3405,12 +3405,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4703,12 +4703,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4817,12 +4817,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4893,12 +4893,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5349,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5425,12 +5425,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5581,12 +5581,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5737,12 +5737,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6577,12 +6577,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6691,12 +6691,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7387,12 +7387,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7961,12 +7961,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8303,12 +8303,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8341,12 +8341,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8379,12 +8379,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8531,12 +8531,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8645,12 +8645,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8991,12 +8991,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9181,12 +9181,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9869,12 +9869,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10477,12 +10477,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10515,12 +10515,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10553,12 +10553,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10705,12 +10705,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10819,12 +10819,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11237,12 +11237,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11275,12 +11275,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11351,12 +11351,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11427,12 +11427,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -11541,12 +11541,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11659,12 +11659,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12039,12 +12039,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12077,12 +12077,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12115,12 +12115,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12153,12 +12153,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12305,12 +12305,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12457,12 +12457,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12537,12 +12537,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12921,12 +12921,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12959,12 +12959,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13035,12 +13035,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13073,12 +13073,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13225,12 +13225,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13377,12 +13377,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13567,12 +13567,12 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13605,12 +13605,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13871,12 +13871,12 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14277,12 +14277,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14315,12 +14315,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14429,12 +14429,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14505,12 +14505,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15377,12 +15377,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15529,12 +15529,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15909,12 +15909,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16249,12 +16249,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16933,12 +16933,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16971,12 +16971,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17427,12 +17427,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17579,12 +17579,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18149,12 +18149,12 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18415,12 +18415,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18719,12 +18719,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18795,12 +18795,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18947,12 +18947,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19137,12 +19137,12 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19407,12 +19407,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19483,12 +19483,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -19597,12 +19597,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -19635,12 +19635,12 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19863,12 +19863,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20015,12 +20015,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20167,12 +20167,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20433,12 +20433,12 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20509,12 +20509,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20699,12 +20699,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20889,12 +20889,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21193,12 +21193,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21383,12 +21383,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21573,12 +21573,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21725,12 +21725,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22181,12 +22181,12 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22523,12 +22523,12 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22865,12 +22865,12 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22903,12 +22903,12 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23321,12 +23321,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23587,12 +23587,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23625,12 +23625,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23739,12 +23739,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
